--- a/github_cmds.xlsx
+++ b/github_cmds.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D58369-693B-46E6-BEC5-9C4EAC698C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC1AB20-55B6-A145-9A00-DDC041D5C964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="2295" windowWidth="16245" windowHeight="12705" xr2:uid="{8F2625FD-89A9-4B3D-8A00-8DF7F9DA0750}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -281,8 +282,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextové prepojenie" xfId="1" builtinId="8"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,7 +299,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,14 +601,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.4140625" customWidth="1"/>
+    <col min="3" max="3" width="44.2578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -618,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -627,7 +628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -635,7 +636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -646,7 +647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -655,7 +656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -663,7 +664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -671,7 +672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -682,14 +683,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -700,7 +701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
@@ -711,13 +712,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
@@ -725,7 +726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -733,7 +734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
@@ -741,7 +742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -752,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -760,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -771,7 +772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
@@ -779,7 +780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -787,7 +788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -795,7 +796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>

--- a/github_cmds.xlsx
+++ b/github_cmds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC1AB20-55B6-A145-9A00-DDC041D5C964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C090277-F475-FC4F-9008-81B67CA3E6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="2295" windowWidth="16245" windowHeight="12705" xr2:uid="{8F2625FD-89A9-4B3D-8A00-8DF7F9DA0750}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>SSH</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/9468970/how-to-get-a-count-of-all-the-files-in-a-git-repository</t>
+  </si>
+  <si>
+    <t>Clone and pull from GitHub</t>
+  </si>
+  <si>
+    <t>$ git clone https://github.com/libgit2/libgit2 mylibgit</t>
+  </si>
+  <si>
+    <t>Cloning an Existing Repository</t>
+  </si>
+  <si>
+    <t>If you want to clone the repository into a directory named something other than libgit2, you can specify the new directory name as an additional argument:</t>
   </si>
 </sst>
 </file>
@@ -595,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC9B31-712E-4E5B-94AD-D272F284797C}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -685,135 +697,153 @@
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>48</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{C7519BB9-4990-4441-85D8-3F8D734486E5}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{F79C6C8A-CBC0-431B-9513-8B085982791B}"/>
-    <hyperlink ref="C19" r:id="rId3" xr:uid="{DE5C9EB2-D030-4578-8F80-4966C6FB18CC}"/>
-    <hyperlink ref="C25" r:id="rId4" xr:uid="{1215AFF7-7BD6-48B5-8901-225043A459B0}"/>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{C7519BB9-4990-4441-85D8-3F8D734486E5}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{F79C6C8A-CBC0-431B-9513-8B085982791B}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{DE5C9EB2-D030-4578-8F80-4966C6FB18CC}"/>
+    <hyperlink ref="C29" r:id="rId4" xr:uid="{1215AFF7-7BD6-48B5-8901-225043A459B0}"/>
     <hyperlink ref="C3" r:id="rId5" xr:uid="{5C62FD82-4872-4EC9-A92A-846A76165160}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{FC56FECA-2CD4-4887-9580-C401BD487AA1}"/>
-    <hyperlink ref="C13" r:id="rId7" xr:uid="{E597F76D-D8BF-43D2-9023-C2BC6BEEF4BD}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{BD695441-FA05-4A8D-97D7-1774ABEAEF28}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{E597F76D-D8BF-43D2-9023-C2BC6BEEF4BD}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{BD695441-FA05-4A8D-97D7-1774ABEAEF28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/github_cmds.xlsx
+++ b/github_cmds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C090277-F475-FC4F-9008-81B67CA3E6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86A58E67-BA89-9E41-AE16-AD662F71117F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="2295" windowWidth="16245" windowHeight="12705" xr2:uid="{8F2625FD-89A9-4B3D-8A00-8DF7F9DA0750}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>SSH</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>If you want to clone the repository into a directory named something other than libgit2, you can specify the new directory name as an additional argument:</t>
+  </si>
+  <si>
+    <t>Unmodifying a Modified File</t>
+  </si>
+  <si>
+    <t>$ git checkout -- CONTRIBUTING.md</t>
+  </si>
+  <si>
+    <t>Unmodifying a Modified File with git restore</t>
+  </si>
+  <si>
+    <t>$ git restore CONTRIBUTING.md</t>
   </si>
 </sst>
 </file>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC9B31-712E-4E5B-94AD-D272F284797C}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -731,119 +743,135 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{C7519BB9-4990-4441-85D8-3F8D734486E5}"/>
-    <hyperlink ref="C21" r:id="rId2" xr:uid="{F79C6C8A-CBC0-431B-9513-8B085982791B}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{DE5C9EB2-D030-4578-8F80-4966C6FB18CC}"/>
-    <hyperlink ref="C29" r:id="rId4" xr:uid="{1215AFF7-7BD6-48B5-8901-225043A459B0}"/>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{C7519BB9-4990-4441-85D8-3F8D734486E5}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{F79C6C8A-CBC0-431B-9513-8B085982791B}"/>
+    <hyperlink ref="C25" r:id="rId3" xr:uid="{DE5C9EB2-D030-4578-8F80-4966C6FB18CC}"/>
+    <hyperlink ref="C31" r:id="rId4" xr:uid="{1215AFF7-7BD6-48B5-8901-225043A459B0}"/>
     <hyperlink ref="C3" r:id="rId5" xr:uid="{5C62FD82-4872-4EC9-A92A-846A76165160}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{FC56FECA-2CD4-4887-9580-C401BD487AA1}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{E597F76D-D8BF-43D2-9023-C2BC6BEEF4BD}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{BD695441-FA05-4A8D-97D7-1774ABEAEF28}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{BD695441-FA05-4A8D-97D7-1774ABEAEF28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/github_cmds.xlsx
+++ b/github_cmds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86A58E67-BA89-9E41-AE16-AD662F71117F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{5D5C6387-D71F-DD4B-8C0B-33285A441038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="2295" windowWidth="16245" windowHeight="12705" xr2:uid="{8F2625FD-89A9-4B3D-8A00-8DF7F9DA0750}"/>
   </bookViews>
@@ -306,8 +306,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hypertextové prepojenie" xfId="1" builtinId="8"/>
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC9B31-712E-4E5B-94AD-D272F284797C}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -770,6 +770,7 @@
         <v>48</v>
       </c>
     </row>
+    <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>

--- a/github_cmds.xlsx
+++ b/github_cmds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{5D5C6387-D71F-DD4B-8C0B-33285A441038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A207F148-4FCA-354F-A1AC-01D788FB4722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="2295" windowWidth="16245" windowHeight="12705" xr2:uid="{8F2625FD-89A9-4B3D-8A00-8DF7F9DA0750}"/>
   </bookViews>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="100">
   <si>
     <t>SSH</t>
   </si>
@@ -168,9 +169,6 @@
     <t>$ git checkout -b &lt;branch&gt;</t>
   </si>
   <si>
-    <t>switch branch</t>
-  </si>
-  <si>
     <t>https://backlog.com/git-tutorial/branching/switch-branch/</t>
   </si>
   <si>
@@ -205,6 +203,135 @@
   </si>
   <si>
     <t>$ git restore CONTRIBUTING.md</t>
+  </si>
+  <si>
+    <t>creates and switch to branch</t>
+  </si>
+  <si>
+    <t>git merge --abort</t>
+  </si>
+  <si>
+    <t>return state back before merging - all files must have been commited or stashed</t>
+  </si>
+  <si>
+    <t>git reset --hard HEAD</t>
+  </si>
+  <si>
+    <t>return back to the last  commited state</t>
+  </si>
+  <si>
+    <t>Remember that any uncommitted work will be lost, so make sure you don’t want any of your changes.</t>
+  </si>
+  <si>
+    <t>git merge -Xignore-space-change whitespace</t>
+  </si>
+  <si>
+    <t>If you see that you have a lot of whitespace issues in a merge, you can simply abort it and do it again, this time with Xignore-all-space or -Xignore-space-change</t>
+  </si>
+  <si>
+    <t>git diff -b</t>
+  </si>
+  <si>
+    <t>git diff --ours</t>
+  </si>
+  <si>
+    <t>shows highlighted diffrences in merged file both our branch and their branch</t>
+  </si>
+  <si>
+    <t>shows highlighted diffrences in merged of our branch</t>
+  </si>
+  <si>
+    <t>git diff --theirs</t>
+  </si>
+  <si>
+    <t>git diff --theirs -b</t>
+  </si>
+  <si>
+    <t>strip out the whitespace because we’re comparing it to what is in Git, not our cleaned file</t>
+  </si>
+  <si>
+    <t>GIT TAGGING</t>
+  </si>
+  <si>
+    <t>git tag</t>
+  </si>
+  <si>
+    <t>listing all tags</t>
+  </si>
+  <si>
+    <t>git tag -l "v1.8.5*"</t>
+  </si>
+  <si>
+    <t>listing tags by pattern</t>
+  </si>
+  <si>
+    <t>git tag -a v1.4 -m "my version 1.4"</t>
+  </si>
+  <si>
+    <t>creating tag</t>
+  </si>
+  <si>
+    <t>git show v1.4</t>
+  </si>
+  <si>
+    <t>show tag data</t>
+  </si>
+  <si>
+    <t>git tag v1.4-lw</t>
+  </si>
+  <si>
+    <t>creating a lightweight tag</t>
+  </si>
+  <si>
+    <t>git tag -a v1.2 9fceb02</t>
+  </si>
+  <si>
+    <t>tagging former commits by starting part of schecksum hascode</t>
+  </si>
+  <si>
+    <t>git push origin &lt;tagname&gt;</t>
+  </si>
+  <si>
+    <t>sharing certain tag</t>
+  </si>
+  <si>
+    <t>git push origin --tags</t>
+  </si>
+  <si>
+    <t>sharing tags to remote</t>
+  </si>
+  <si>
+    <t>git tag -d v1.4-lw</t>
+  </si>
+  <si>
+    <t>deleting certain tag</t>
+  </si>
+  <si>
+    <t>git push &lt;remote&gt; :refs/tags/&lt;tagname&gt;</t>
+  </si>
+  <si>
+    <t>var1 deleting remote tagname</t>
+  </si>
+  <si>
+    <t>git push origin --delete &lt;tagname&gt;</t>
+  </si>
+  <si>
+    <t>var2 deleting remote tagname</t>
+  </si>
+  <si>
+    <t>git checkout v2.0.0</t>
+  </si>
+  <si>
+    <t>If you want to view the versions of files a tag is pointing to, you can do a git checkout of that tag, although this puts your repository in “detached HEAD” state, which has some ill side effects:</t>
+  </si>
+  <si>
+    <t>In “detached HEAD” state, if you make changes and then create a commit, the tag will stay the same, but your new commit won’t belong to any branch and will be unreachable, except by the exact commit hash. Thus, if you need to make changes — say you’re fixing a bug on an older version, for instance — you will generally want to create a branch:</t>
+  </si>
+  <si>
+    <t>git checkout -b version2 v2.0.0</t>
+  </si>
+  <si>
+    <t>If you do this and make a commit, your version2 branch will be slightly different than your v2.0.0 tag since it will move forward with your new changes, so do be careful.</t>
   </si>
 </sst>
 </file>
@@ -294,16 +421,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -619,260 +769,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC9B31-712E-4E5B-94AD-D272F284797C}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.4140625" customWidth="1"/>
-    <col min="3" max="3" width="44.2578125" customWidth="1"/>
+    <col min="2" max="2" width="39.4140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="44.2578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="81" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
         <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C46" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C48" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="49" spans="1:3" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>2</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B49" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C49" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B50" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="51" spans="1:3" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B51" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C51" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+    <row r="52" spans="1:3" s="2" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="B52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C52" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="53" spans="1:3" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>13</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B53" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+    <row r="54" spans="1:3" s="2" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C54" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C29" r:id="rId1" xr:uid="{C7519BB9-4990-4441-85D8-3F8D734486E5}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{F79C6C8A-CBC0-431B-9513-8B085982791B}"/>
-    <hyperlink ref="C25" r:id="rId3" xr:uid="{DE5C9EB2-D030-4578-8F80-4966C6FB18CC}"/>
-    <hyperlink ref="C31" r:id="rId4" xr:uid="{1215AFF7-7BD6-48B5-8901-225043A459B0}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{5C62FD82-4872-4EC9-A92A-846A76165160}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{FC56FECA-2CD4-4887-9580-C401BD487AA1}"/>
-    <hyperlink ref="C17" r:id="rId7" xr:uid="{E597F76D-D8BF-43D2-9023-C2BC6BEEF4BD}"/>
-    <hyperlink ref="C20" r:id="rId8" xr:uid="{BD695441-FA05-4A8D-97D7-1774ABEAEF28}"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{C7519BB9-4990-4441-85D8-3F8D734486E5}"/>
+    <hyperlink ref="C48" r:id="rId2" xr:uid="{DE5C9EB2-D030-4578-8F80-4966C6FB18CC}"/>
+    <hyperlink ref="C54" r:id="rId3" xr:uid="{1215AFF7-7BD6-48B5-8901-225043A459B0}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{5C62FD82-4872-4EC9-A92A-846A76165160}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{FC56FECA-2CD4-4887-9580-C401BD487AA1}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{E597F76D-D8BF-43D2-9023-C2BC6BEEF4BD}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{BD695441-FA05-4A8D-97D7-1774ABEAEF28}"/>
+    <hyperlink ref="C46" r:id="rId8" xr:uid="{F79C6C8A-CBC0-431B-9513-8B085982791B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
